--- a/PYTHON-CLASS/EXCEL_FILES/Python_Assignment_Team-K8S.xlsx
+++ b/PYTHON-CLASS/EXCEL_FILES/Python_Assignment_Team-K8S.xlsx
@@ -810,7 +810,7 @@
         <v>317</v>
       </c>
       <c r="H2">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -836,7 +836,7 @@
         <v>291</v>
       </c>
       <c r="H3">
-        <v>73</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -862,7 +862,7 @@
         <v>227</v>
       </c>
       <c r="H4">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -888,7 +888,7 @@
         <v>359</v>
       </c>
       <c r="H5">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -914,7 +914,7 @@
         <v>385</v>
       </c>
       <c r="H6">
-        <v>96</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -940,7 +940,7 @@
         <v>256</v>
       </c>
       <c r="H7">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -966,7 +966,7 @@
         <v>408</v>
       </c>
       <c r="H8">
-        <v>102</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -992,7 +992,7 @@
         <v>203</v>
       </c>
       <c r="H9">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1018,7 +1018,7 @@
         <v>260</v>
       </c>
       <c r="H10">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1044,7 +1044,7 @@
         <v>324</v>
       </c>
       <c r="H11">
-        <v>81</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1070,7 +1070,7 @@
         <v>132</v>
       </c>
       <c r="H12">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1096,7 +1096,7 @@
         <v>367</v>
       </c>
       <c r="H13">
-        <v>92</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1122,7 +1122,7 @@
         <v>298</v>
       </c>
       <c r="H14">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1148,7 +1148,7 @@
         <v>273</v>
       </c>
       <c r="H15">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1174,7 +1174,7 @@
         <v>182</v>
       </c>
       <c r="H16">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1200,7 +1200,7 @@
         <v>268</v>
       </c>
       <c r="H17">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1226,7 +1226,7 @@
         <v>310</v>
       </c>
       <c r="H18">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1252,7 +1252,7 @@
         <v>350</v>
       </c>
       <c r="H19">
-        <v>88</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1278,7 +1278,7 @@
         <v>230</v>
       </c>
       <c r="H20">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1304,7 +1304,7 @@
         <v>241</v>
       </c>
       <c r="H21">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1330,7 +1330,7 @@
         <v>230</v>
       </c>
       <c r="H22">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1356,7 +1356,7 @@
         <v>225</v>
       </c>
       <c r="H23">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1382,7 +1382,7 @@
         <v>223</v>
       </c>
       <c r="H24">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1408,7 +1408,7 @@
         <v>286</v>
       </c>
       <c r="H25">
-        <v>72</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1434,7 +1434,7 @@
         <v>200</v>
       </c>
       <c r="H26">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1460,7 +1460,7 @@
         <v>334</v>
       </c>
       <c r="H27">
-        <v>84</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1486,7 +1486,7 @@
         <v>213</v>
       </c>
       <c r="H28">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1512,7 +1512,7 @@
         <v>248</v>
       </c>
       <c r="H29">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1538,7 +1538,7 @@
         <v>317</v>
       </c>
       <c r="H30">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1564,7 +1564,7 @@
         <v>246</v>
       </c>
       <c r="H31">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1590,7 +1590,7 @@
         <v>328</v>
       </c>
       <c r="H32">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1616,7 +1616,7 @@
         <v>255</v>
       </c>
       <c r="H33">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1642,7 +1642,7 @@
         <v>188</v>
       </c>
       <c r="H34">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1668,7 +1668,7 @@
         <v>361</v>
       </c>
       <c r="H35">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1694,7 +1694,7 @@
         <v>312</v>
       </c>
       <c r="H36">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1720,7 +1720,7 @@
         <v>240</v>
       </c>
       <c r="H37">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1746,7 +1746,7 @@
         <v>222</v>
       </c>
       <c r="H38">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1772,7 +1772,7 @@
         <v>335</v>
       </c>
       <c r="H39">
-        <v>84</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1798,7 +1798,7 @@
         <v>277</v>
       </c>
       <c r="H40">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1824,7 +1824,7 @@
         <v>344</v>
       </c>
       <c r="H41">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1850,7 +1850,7 @@
         <v>340</v>
       </c>
       <c r="H42">
-        <v>85</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1876,7 +1876,7 @@
         <v>264</v>
       </c>
       <c r="H43">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1902,7 +1902,7 @@
         <v>223</v>
       </c>
       <c r="H44">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1928,7 +1928,7 @@
         <v>206</v>
       </c>
       <c r="H45">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1954,7 +1954,7 @@
         <v>343</v>
       </c>
       <c r="H46">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1980,7 +1980,7 @@
         <v>226</v>
       </c>
       <c r="H47">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2006,7 +2006,7 @@
         <v>320</v>
       </c>
       <c r="H48">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2032,7 +2032,7 @@
         <v>217</v>
       </c>
       <c r="H49">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2058,7 +2058,7 @@
         <v>366</v>
       </c>
       <c r="H50">
-        <v>92</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2084,7 +2084,7 @@
         <v>229</v>
       </c>
       <c r="H51">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2110,7 +2110,7 @@
         <v>325</v>
       </c>
       <c r="H52">
-        <v>81</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2136,7 +2136,7 @@
         <v>268</v>
       </c>
       <c r="H53">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2162,7 +2162,7 @@
         <v>152</v>
       </c>
       <c r="H54">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2188,7 +2188,7 @@
         <v>249</v>
       </c>
       <c r="H55">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2214,7 +2214,7 @@
         <v>235</v>
       </c>
       <c r="H56">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2240,7 +2240,7 @@
         <v>217</v>
       </c>
       <c r="H57">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2266,7 +2266,7 @@
         <v>165</v>
       </c>
       <c r="H58">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2292,7 +2292,7 @@
         <v>372</v>
       </c>
       <c r="H59">
-        <v>93</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2318,7 +2318,7 @@
         <v>302</v>
       </c>
       <c r="H60">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2344,7 +2344,7 @@
         <v>213</v>
       </c>
       <c r="H61">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2370,7 +2370,7 @@
         <v>312</v>
       </c>
       <c r="H62">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2396,7 +2396,7 @@
         <v>322</v>
       </c>
       <c r="H63">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2422,7 +2422,7 @@
         <v>322</v>
       </c>
       <c r="H64">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2448,7 +2448,7 @@
         <v>310</v>
       </c>
       <c r="H65">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2474,7 +2474,7 @@
         <v>326</v>
       </c>
       <c r="H66">
-        <v>82</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2500,7 +2500,7 @@
         <v>212</v>
       </c>
       <c r="H67">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2526,7 +2526,7 @@
         <v>270</v>
       </c>
       <c r="H68">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2552,7 +2552,7 @@
         <v>287</v>
       </c>
       <c r="H69">
-        <v>72</v>
+        <v>57</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2578,7 +2578,7 @@
         <v>322</v>
       </c>
       <c r="H70">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2604,7 +2604,7 @@
         <v>292</v>
       </c>
       <c r="H71">
-        <v>73</v>
+        <v>58</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2630,7 +2630,7 @@
         <v>338</v>
       </c>
       <c r="H72">
-        <v>84</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2656,7 +2656,7 @@
         <v>213</v>
       </c>
       <c r="H73">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2682,7 +2682,7 @@
         <v>298</v>
       </c>
       <c r="H74">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2708,7 +2708,7 @@
         <v>303</v>
       </c>
       <c r="H75">
-        <v>76</v>
+        <v>61</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2734,7 +2734,7 @@
         <v>397</v>
       </c>
       <c r="H76">
-        <v>99</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2760,7 +2760,7 @@
         <v>200</v>
       </c>
       <c r="H77">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2786,7 +2786,7 @@
         <v>270</v>
       </c>
       <c r="H78">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2812,7 +2812,7 @@
         <v>262</v>
       </c>
       <c r="H79">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2838,7 +2838,7 @@
         <v>129</v>
       </c>
       <c r="H80">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2864,7 +2864,7 @@
         <v>460</v>
       </c>
       <c r="H81">
-        <v>115</v>
+        <v>92</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2890,7 +2890,7 @@
         <v>180</v>
       </c>
       <c r="H82">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2916,7 +2916,7 @@
         <v>353</v>
       </c>
       <c r="H83">
-        <v>88</v>
+        <v>71</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2942,7 +2942,7 @@
         <v>206</v>
       </c>
       <c r="H84">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2968,7 +2968,7 @@
         <v>200</v>
       </c>
       <c r="H85">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2994,7 +2994,7 @@
         <v>206</v>
       </c>
       <c r="H86">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3020,7 +3020,7 @@
         <v>317</v>
       </c>
       <c r="H87">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3046,7 +3046,7 @@
         <v>249</v>
       </c>
       <c r="H88">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3072,7 +3072,7 @@
         <v>330</v>
       </c>
       <c r="H89">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3098,7 +3098,7 @@
         <v>353</v>
       </c>
       <c r="H90">
-        <v>88</v>
+        <v>71</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3124,7 +3124,7 @@
         <v>227</v>
       </c>
       <c r="H91">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3150,7 +3150,7 @@
         <v>238</v>
       </c>
       <c r="H92">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3176,7 +3176,7 @@
         <v>289</v>
       </c>
       <c r="H93">
-        <v>72</v>
+        <v>58</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3202,7 +3202,7 @@
         <v>176</v>
       </c>
       <c r="H94">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3228,7 +3228,7 @@
         <v>331</v>
       </c>
       <c r="H95">
-        <v>83</v>
+        <v>66</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3254,7 +3254,7 @@
         <v>326</v>
       </c>
       <c r="H96">
-        <v>82</v>
+        <v>65</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3280,7 +3280,7 @@
         <v>337</v>
       </c>
       <c r="H97">
-        <v>84</v>
+        <v>67</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3306,7 +3306,7 @@
         <v>292</v>
       </c>
       <c r="H98">
-        <v>73</v>
+        <v>58</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3332,7 +3332,7 @@
         <v>259</v>
       </c>
       <c r="H99">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3358,7 +3358,7 @@
         <v>344</v>
       </c>
       <c r="H100">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3384,7 +3384,7 @@
         <v>234</v>
       </c>
       <c r="H101">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3410,7 +3410,7 @@
         <v>276</v>
       </c>
       <c r="H102">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3436,7 +3436,7 @@
         <v>330</v>
       </c>
       <c r="H103">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3462,7 +3462,7 @@
         <v>363</v>
       </c>
       <c r="H104">
-        <v>91</v>
+        <v>73</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3488,7 +3488,7 @@
         <v>333</v>
       </c>
       <c r="H105">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3514,7 +3514,7 @@
         <v>238</v>
       </c>
       <c r="H106">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3540,7 +3540,7 @@
         <v>254</v>
       </c>
       <c r="H107">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3566,7 +3566,7 @@
         <v>233</v>
       </c>
       <c r="H108">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3592,7 +3592,7 @@
         <v>349</v>
       </c>
       <c r="H109">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3618,7 +3618,7 @@
         <v>316</v>
       </c>
       <c r="H110">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3644,7 +3644,7 @@
         <v>248</v>
       </c>
       <c r="H111">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3670,7 +3670,7 @@
         <v>226</v>
       </c>
       <c r="H112">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3696,7 +3696,7 @@
         <v>310</v>
       </c>
       <c r="H113">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3722,7 +3722,7 @@
         <v>322</v>
       </c>
       <c r="H114">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3748,7 +3748,7 @@
         <v>252</v>
       </c>
       <c r="H115">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3774,7 +3774,7 @@
         <v>313</v>
       </c>
       <c r="H116">
-        <v>78</v>
+        <v>63</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3800,7 +3800,7 @@
         <v>178</v>
       </c>
       <c r="H117">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3826,7 +3826,7 @@
         <v>291</v>
       </c>
       <c r="H118">
-        <v>73</v>
+        <v>58</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3852,7 +3852,7 @@
         <v>209</v>
       </c>
       <c r="H119">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3878,7 +3878,7 @@
         <v>236</v>
       </c>
       <c r="H120">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3904,7 +3904,7 @@
         <v>267</v>
       </c>
       <c r="H121">
-        <v>67</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
